--- a/static/report/Page.xlsx
+++ b/static/report/Page.xlsx
@@ -9,46 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>wwwwwwwww</t>
-  </si>
-  <si>
-    <t>fffffffff</t>
-  </si>
-  <si>
-    <t>sadsad</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
-    <t>dddd</t>
-  </si>
-  <si>
-    <t>7654erftgh</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -105,12 +79,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -392,101 +365,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M1:T3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="13:20">
-      <c r="T1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="13:20">
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="13:20">
-      <c r="R3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G4"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C3"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>